--- a/biology/Zoologie/Glyptodon/Glyptodon.xlsx
+++ b/biology/Zoologie/Glyptodon/Glyptodon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le glyptodon, dont le nom signifie dents gravées, est un genre de tatou géant pesant jusqu'à 1,4 tonne qui vivait durant le Néogène en Amérique du Sud, sur une aire de répartition qui comprend le Brésil, l'Argentine et la Bolivie. Ce genre fait partie du super-ordre des Xenarthra (ex-édentés) et de l'ordre des Cingulata, mammifères placentaires apparus en Amérique du Sud.
 On estime que le genre Glyptodon est apparu il y a environ 30 millions d'années et a disparu il y a environ 11 000 ans, après l'arrivée de l'Homme moderne sur le continent américain.
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le glyptodon était l'un des plus grands genres de glyptodontidés. Comme dans les autres genres, la cuirasse dorsale en forme de coupole était constituée d'ossifications polygonales de la peau.
 Alors que le glyptodon possédait une cuirasse caudale faite d'anneaux mobiles complètement séparés, exactement comme pour Glyptotherium qui lui ressemblait et vivait en Amérique du Nord, les autres genres apparentés, comme Panochthus et Doedicurus, étaient munis à la place d'une enveloppe rigide à la fin de la queue.
@@ -546,7 +560,9 @@
           <t>Aire géographique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le glyptodon était répandu en Amérique du Sud, du Pliocène inférieur à la fin du Pléistocène supérieur.
 </t>
@@ -577,7 +593,9 @@
           <t>Mode de vie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Comme les autres membres de sa famille il était herbivore et habitait les savanes.
 Des découvertes en Floride montrent que leur carapace puissante ne protégeait pas complètement ces animaux contre les carnivores, et les glyptodons juvéniles étaient la proie des jaguars qui les tuaient d'une morsure au crâne, encore relativement mal protégé.
@@ -609,7 +627,9 @@
           <t>Extinction</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Comme tous les tatous géants, le glyptodon a disparu vers la fin de la dernière période glaciaire. Les fossiles les plus récents, qui viennent du Brésil, ont environ 11 000 ans.
 </t>
@@ -640,7 +660,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Plusieurs espèces ont été décrites :
 Glyptodon clavipes, Owen, 1839
